--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C21739\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5760"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -851,6 +846,71 @@
   </si>
   <si>
     <t>西内 啓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Courrier JAPON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UMLモデリング技能　認定試験</t>
+    <rPh sb="8" eb="10">
+      <t>ギノウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ニンテイシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>竹政　昭利</t>
+    <rPh sb="0" eb="1">
+      <t>タケ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EDEN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遠藤　浩輝</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべてがFになる The Perfect Insider</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森　博嗣</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３回先勝始め</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サキガチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -858,7 +918,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +973,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1028,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,14 +1188,23 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1147,7 +1225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1189,7 +1267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1224,7 +1302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1433,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,7 +1557,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="29">
+      <c r="B4" s="32">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1498,7 +1576,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1593,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1526,7 +1604,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1545,7 +1623,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1562,7 +1640,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1581,7 +1659,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1676,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1617,7 +1695,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +2071,7 @@
       <c r="C32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2005,8 +2083,55 @@
       <c r="G32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="31" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="29">
+        <v>41884</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="30"/>
+      <c r="C34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -911,6 +911,57 @@
     <rPh sb="4" eb="5">
       <t>ハジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐賀のがばいばあちゃん</t>
+    <rPh sb="0" eb="2">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>島田洋七</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウヒチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の歴史</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経済のニュースがよくわかる本</t>
+    <rPh sb="0" eb="2">
+      <t>ケイザイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>細野真宏</t>
+    <rPh sb="0" eb="2">
+      <t>ホソノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マサヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャン・マトリコン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -979,9 +1030,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1097,7 +1146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,6 +1246,12 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,6 +1259,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,7 +1624,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="32">
+      <c r="B4" s="34">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1576,7 +1643,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1660,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1604,7 +1671,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="32">
+      <c r="B7" s="34">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1623,7 +1690,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1707,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="32">
+      <c r="B9" s="34">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1659,7 +1726,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="33"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1743,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="32">
+      <c r="B11" s="34">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1695,7 +1762,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2097,7 +2164,7 @@
       <c r="D33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="40" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2133,6 +2200,92 @@
       <c r="H34" s="31" t="s">
         <v>125</v>
       </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="32">
+        <v>41919</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="33"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="32"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="33"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="32"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="33"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="32"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="33"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -1249,15 +1249,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1272,6 +1263,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="34">
+      <c r="B4" s="39">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1643,7 +1643,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="35"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1671,7 +1671,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="34">
+      <c r="B7" s="39">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1690,7 +1690,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="34">
+      <c r="B9" s="39">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1726,7 +1726,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="34">
+      <c r="B11" s="39">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1762,7 +1762,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="D33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="37" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2205,18 +2205,18 @@
       <c r="B35" s="32">
         <v>41919</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39" t="s">
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="38"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="33"/>
@@ -2235,57 +2235,57 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="32"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="33"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="32"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="33"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="32"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="33"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -962,6 +962,63 @@
   </si>
   <si>
     <t>ジャン・マトリコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報処理学会誌</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウショリ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガッカイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あそびあい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新田　章</t>
+    <rPh sb="0" eb="2">
+      <t>ニッタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幽霊人命救助隊</t>
+    <rPh sb="0" eb="2">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キュウジョタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高野和明</t>
+    <rPh sb="0" eb="2">
+      <t>タカノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カズアキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リセット後、初回</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショカイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -969,7 +1026,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,6 +1088,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1146,7 +1212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,6 +1338,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1580,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2270,20 +2339,35 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="32"/>
+      <c r="B41" s="32">
+        <v>42073</v>
+      </c>
       <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>136</v>
+      </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
+      <c r="J41" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="E42" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C22168\Documents\GitHub\GDM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -965,16 +970,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>情報処理学会誌</t>
-    <rPh sb="0" eb="4">
-      <t>ジョウホウショリ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガッカイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>あそびあい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1019,6 +1014,55 @@
     <rPh sb="6" eb="8">
       <t>ショカイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機械より人間らしくなれるか？</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近似式のプログラミング</t>
+    <rPh sb="0" eb="3">
+      <t>キンジシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>浜田穂積</t>
+    <rPh sb="0" eb="2">
+      <t>ハマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホヅミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>哲学入門</t>
+    <rPh sb="0" eb="4">
+      <t>テツガクニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報処理学会誌</t>
+    <rPh sb="0" eb="7">
+      <t>ジョウホウショリガッカイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブライアン・クリスチャン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バートランド・ラッセル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1330,17 +1374,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,7 +1405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1403,7 +1447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1438,7 +1482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1649,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,7 +1737,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="39">
+      <c r="B4" s="40">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1712,7 +1756,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1773,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1740,7 +1784,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1759,7 +1803,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1820,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="39">
+      <c r="B9" s="40">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1795,7 +1839,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1856,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="39">
+      <c r="B11" s="40">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1831,7 +1875,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +2319,9 @@
         <v>41919</v>
       </c>
       <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="D35" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="E35" s="36" t="s">
         <v>127</v>
       </c>
@@ -2290,7 +2336,9 @@
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="33"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="34" t="s">
+        <v>143</v>
+      </c>
       <c r="E36" s="3" t="s">
         <v>128</v>
       </c>
@@ -2305,7 +2353,9 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="32"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -2314,7 +2364,9 @@
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -2323,7 +2375,9 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="32"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -2332,7 +2386,9 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="33"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -2343,30 +2399,30 @@
         <v>42073</v>
       </c>
       <c r="C41" s="36"/>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>136</v>
+      <c r="F41" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
@@ -2431,9 +2487,13 @@
     <hyperlink ref="D31" r:id="rId49"/>
     <hyperlink ref="G31" r:id="rId50"/>
     <hyperlink ref="H31" r:id="rId51"/>
+    <hyperlink ref="D35" r:id="rId52"/>
+    <hyperlink ref="D37" r:id="rId53"/>
+    <hyperlink ref="D39" r:id="rId54"/>
+    <hyperlink ref="D41" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C22168\Documents\GitHub\GDM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5760"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1063,6 +1058,25 @@
   </si>
   <si>
     <t>バートランド・ラッセル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライアーゲーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲斐谷忍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実践UML</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレーブ・ラーマン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1405,7 +1419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1447,7 +1461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,7 +1496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1693,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2318,7 +2332,9 @@
       <c r="B35" s="32">
         <v>41919</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="35" t="s">
+        <v>147</v>
+      </c>
       <c r="D35" s="5" t="s">
         <v>138</v>
       </c>
@@ -2335,7 +2351,9 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="33"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D36" s="34" t="s">
         <v>143</v>
       </c>
@@ -2351,8 +2369,12 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="32"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="32">
+        <v>41989</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D37" s="5" t="s">
         <v>139</v>
       </c>
@@ -2363,7 +2385,9 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D38" s="34" t="s">
         <v>140</v>
       </c>
@@ -2373,8 +2397,12 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="32"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="32">
+        <v>42010</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>145</v>
+      </c>
       <c r="D39" s="5" t="s">
         <v>141</v>
       </c>
@@ -2385,7 +2413,9 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="34" t="s">
+        <v>146</v>
+      </c>
       <c r="D40" s="34" t="s">
         <v>144</v>
       </c>
@@ -2398,7 +2428,9 @@
       <c r="B41" s="32">
         <v>42073</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D41" s="4" t="s">
         <v>142</v>
       </c>
@@ -2416,7 +2448,9 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="34" t="s">
         <v>134</v>

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="155">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -969,16 +974,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新田　章</t>
-    <rPh sb="0" eb="2">
-      <t>ニッタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アキラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>幽霊人命救助隊</t>
     <rPh sb="0" eb="2">
       <t>ユウレイ</t>
@@ -1077,6 +1072,67 @@
   </si>
   <si>
     <t>クレーブ・ラーマン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人間失格</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太宰治</t>
+    <rPh sb="0" eb="2">
+      <t>ダザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オサム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>友情</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武者小路実篤</t>
+    <rPh sb="0" eb="4">
+      <t>ムシャノコウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サネアツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>心にしみる31の物語</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モノガタリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小倉　広</t>
+    <rPh sb="0" eb="2">
+      <t>オグラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1270,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,6 +1446,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,7 +1481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1461,7 +1523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1496,7 +1558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,7 +1813,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="40">
+      <c r="B4" s="42">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1770,7 +1832,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1849,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1798,7 +1860,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="40">
+      <c r="B7" s="42">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1817,7 +1879,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +1896,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="40">
+      <c r="B9" s="42">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1853,7 +1915,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1932,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="40">
+      <c r="B11" s="42">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1889,7 +1951,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2333,10 +2395,10 @@
         <v>41919</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="36" t="s">
         <v>127</v>
@@ -2352,10 +2414,10 @@
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="33"/>
       <c r="C36" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>128</v>
@@ -2376,7 +2438,7 @@
         <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -2389,7 +2451,7 @@
         <v>106</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
@@ -2401,10 +2463,10 @@
         <v>42010</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
@@ -2414,10 +2476,10 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="33"/>
       <c r="C40" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
@@ -2432,18 +2494,18 @@
         <v>106</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="36" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
@@ -2453,13 +2515,57 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="34" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="40">
+        <v>42108</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="41"/>
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2525,9 +2631,12 @@
     <hyperlink ref="D37" r:id="rId53"/>
     <hyperlink ref="D39" r:id="rId54"/>
     <hyperlink ref="D41" r:id="rId55"/>
+    <hyperlink ref="H43" r:id="rId56"/>
+    <hyperlink ref="F43" r:id="rId57"/>
+    <hyperlink ref="G43" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="160">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1134,6 +1134,42 @@
       <t>ヒロシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サウンドレコーディング技術概論</t>
+    <rPh sb="11" eb="13">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイロン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大野　進</t>
+    <rPh sb="0" eb="2">
+      <t>オオノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リレーショナルデータベース入門</t>
+  </si>
+  <si>
+    <t>増永　良文</t>
+    <rPh sb="0" eb="2">
+      <t>マスナガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシフミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海賊とよばれた男</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1446,6 +1482,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,7 +1855,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1832,7 +1874,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1849,7 +1891,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1860,7 +1902,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1879,7 +1921,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1896,7 +1938,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="42">
+      <c r="B9" s="44">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1915,7 +1957,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1932,7 +1974,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="42">
+      <c r="B11" s="44">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1951,7 +1993,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="44"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2565,6 +2607,50 @@
       </c>
       <c r="H44" s="34" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="42">
+        <v>42165</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="43"/>
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2634,9 +2720,13 @@
     <hyperlink ref="H43" r:id="rId56"/>
     <hyperlink ref="F43" r:id="rId57"/>
     <hyperlink ref="G43" r:id="rId58"/>
+    <hyperlink ref="H45" r:id="rId59" display="人間失格"/>
+    <hyperlink ref="D45" r:id="rId60"/>
+    <hyperlink ref="E45" r:id="rId61"/>
+    <hyperlink ref="G45" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testGDM\GDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1170,6 +1170,90 @@
   </si>
   <si>
     <t>海賊とよばれた男</t>
+  </si>
+  <si>
+    <t>まるわかりインダストリー4.0</t>
+  </si>
+  <si>
+    <t>日経ビジネス</t>
+    <rPh sb="0" eb="2">
+      <t>ニッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内藤辰彦</t>
+    <rPh sb="0" eb="2">
+      <t>ナイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タツヒコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>産業用イーサネット入門</t>
+    <rPh sb="0" eb="3">
+      <t>サンギョウヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Qt4プログラミング</t>
+  </si>
+  <si>
+    <t>統計学基礎</t>
+    <rPh sb="0" eb="3">
+      <t>トウケイガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本統計学会</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガッカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C# デザインパターン</t>
+  </si>
+  <si>
+    <t>ジェームズ・W. クーパー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイ国家</t>
+    <rPh sb="2" eb="4">
+      <t>コッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星新一</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シンイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1362,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,6 +1578,21 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1809,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1855,7 +1954,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="44">
+      <c r="B4" s="49">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1874,7 +1973,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1891,7 +1990,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1902,7 +2001,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="44">
+      <c r="B7" s="49">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1921,7 +2020,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +2037,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="44">
+      <c r="B9" s="49">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1957,7 +2056,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +2073,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="44">
+      <c r="B11" s="49">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1993,7 +2092,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="46"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2650,6 +2749,97 @@
         <v>158</v>
       </c>
       <c r="H46" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="44">
+        <v>42263</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="45"/>
+      <c r="C48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="46">
+        <v>42283</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="47"/>
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2724,9 +2914,18 @@
     <hyperlink ref="D45" r:id="rId60"/>
     <hyperlink ref="E45" r:id="rId61"/>
     <hyperlink ref="G45" r:id="rId62"/>
+    <hyperlink ref="H47" r:id="rId63"/>
+    <hyperlink ref="D47" r:id="rId64" display="サウンドレコーディング技術概論"/>
+    <hyperlink ref="E47" r:id="rId65" display="海賊とよばれた男"/>
+    <hyperlink ref="G47" r:id="rId66"/>
+    <hyperlink ref="F47" r:id="rId67"/>
+    <hyperlink ref="E49" r:id="rId68" display="海賊とよばれた男"/>
+    <hyperlink ref="G49" r:id="rId69"/>
+    <hyperlink ref="F49" r:id="rId70"/>
+    <hyperlink ref="D49" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="182">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1254,6 +1254,51 @@
       <t>シンイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原</t>
+    <rPh sb="0" eb="1">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モナトロジー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>池田　</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジコンを始める時に読む本</t>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CURRIER JAPON</t>
+  </si>
+  <si>
+    <t>ヤバい経済学</t>
+  </si>
+  <si>
+    <t>スティーヴン・D・レヴィット/スティーヴン・J・ダブナー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10品でわかる日本料理</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,6 +1638,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1908,10 +1959,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,18 +1972,18 @@
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="30.625" customWidth="1"/>
     <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="8" max="10" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1952,9 +2005,15 @@
       <c r="H3" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="49">
+      <c r="I3" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="51">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1971,9 +2030,11 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1988,9 +2049,11 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="52"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1999,9 +2062,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="49">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="51">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2018,9 +2083,11 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="52"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2035,9 +2102,11 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="49">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="51">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2054,9 +2123,11 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="52"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2071,9 +2142,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="49">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="51">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2090,9 +2163,11 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="51"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="53"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2107,8 +2182,10 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <v>41596</v>
       </c>
@@ -2126,8 +2203,10 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>40</v>
@@ -2143,8 +2222,10 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="10">
         <v>41617</v>
       </c>
@@ -2162,8 +2243,10 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>49</v>
@@ -2179,8 +2262,10 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>41645</v>
       </c>
@@ -2198,8 +2283,10 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
@@ -2215,8 +2302,10 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <v>41694</v>
       </c>
@@ -2234,8 +2323,10 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -2251,8 +2342,10 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>41715</v>
       </c>
@@ -2270,8 +2363,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>69</v>
@@ -2287,8 +2382,10 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="19">
         <v>41730</v>
       </c>
@@ -2306,8 +2403,10 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="20"/>
       <c r="C24" s="3" t="s">
         <v>77</v>
@@ -2323,8 +2422,10 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="21">
         <v>41743</v>
       </c>
@@ -2342,8 +2443,10 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="22"/>
       <c r="C26" s="3" t="s">
         <v>99</v>
@@ -2359,8 +2462,10 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="23">
         <v>41804</v>
       </c>
@@ -2378,8 +2483,10 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="24"/>
       <c r="C28" s="3" t="s">
         <v>95</v>
@@ -2395,8 +2502,10 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="25">
         <v>41834</v>
       </c>
@@ -2418,8 +2527,14 @@
       <c r="H29" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
         <v>103</v>
@@ -2439,8 +2554,14 @@
       <c r="H30" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="27">
         <v>41856</v>
       </c>
@@ -2462,8 +2583,14 @@
       <c r="H31" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>106</v>
@@ -2483,8 +2610,14 @@
       <c r="H32" s="31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I32" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="29">
         <v>41884</v>
       </c>
@@ -2506,11 +2639,17 @@
       <c r="H33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="30"/>
       <c r="C34" s="3" t="s">
         <v>106</v>
@@ -2530,8 +2669,14 @@
       <c r="H34" s="31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I34" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="32">
         <v>41919</v>
       </c>
@@ -2551,8 +2696,10 @@
         <v>130</v>
       </c>
       <c r="H35" s="35"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="33"/>
       <c r="C36" s="3" t="s">
         <v>147</v>
@@ -2570,8 +2717,10 @@
         <v>131</v>
       </c>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="32">
         <v>41989</v>
       </c>
@@ -2585,8 +2734,10 @@
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="33"/>
       <c r="C38" s="3" t="s">
         <v>106</v>
@@ -2598,8 +2749,10 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="32">
         <v>42010</v>
       </c>
@@ -2613,8 +2766,10 @@
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="33"/>
       <c r="C40" s="34" t="s">
         <v>145</v>
@@ -2626,8 +2781,10 @@
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="32">
         <v>42073</v>
       </c>
@@ -2645,11 +2802,13 @@
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
-      <c r="J41" t="s">
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="L41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="33"/>
       <c r="C42" s="3" t="s">
         <v>106</v>
@@ -2663,8 +2822,10 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="40">
         <v>42108</v>
       </c>
@@ -2686,8 +2847,14 @@
       <c r="H43" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="41"/>
       <c r="C44" s="3" t="s">
         <v>106</v>
@@ -2707,8 +2874,14 @@
       <c r="H44" s="34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I44" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="42">
         <v>42165</v>
       </c>
@@ -2730,8 +2903,14 @@
       <c r="H45" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="43"/>
       <c r="C46" s="3" t="s">
         <v>106</v>
@@ -2751,8 +2930,14 @@
       <c r="H46" s="34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I46" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="44">
         <v>42263</v>
       </c>
@@ -2774,8 +2959,14 @@
       <c r="H47" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I47" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="45"/>
       <c r="C48" s="3" t="s">
         <v>106</v>
@@ -2795,8 +2986,14 @@
       <c r="H48" s="34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I48" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="46">
         <v>42283</v>
       </c>
@@ -2818,11 +3015,17 @@
       <c r="H49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J49" t="s">
+      <c r="I49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="47"/>
       <c r="C50" s="3" t="s">
         <v>106</v>
@@ -2840,6 +3043,68 @@
         <v>168</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" s="49">
+        <v>42326</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B52" s="50"/>
+      <c r="C52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2923,9 +3188,23 @@
     <hyperlink ref="G49" r:id="rId69"/>
     <hyperlink ref="F49" r:id="rId70"/>
     <hyperlink ref="D49" r:id="rId71"/>
+    <hyperlink ref="E51" r:id="rId72" display="海賊とよばれた男"/>
+    <hyperlink ref="G51" r:id="rId73"/>
+    <hyperlink ref="F51" r:id="rId74"/>
+    <hyperlink ref="D51" r:id="rId75"/>
+    <hyperlink ref="I31" r:id="rId76"/>
+    <hyperlink ref="I43" r:id="rId77"/>
+    <hyperlink ref="I45" r:id="rId78" display="人間失格"/>
+    <hyperlink ref="I47" r:id="rId79"/>
+    <hyperlink ref="J31" r:id="rId80"/>
+    <hyperlink ref="J43" r:id="rId81"/>
+    <hyperlink ref="J45" r:id="rId82" display="人間失格"/>
+    <hyperlink ref="J47" r:id="rId83"/>
+    <hyperlink ref="H51" r:id="rId84"/>
+    <hyperlink ref="I51" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testGDM\GDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="191">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1299,6 +1299,83 @@
   </si>
   <si>
     <t>10品でわかる日本料理</t>
+  </si>
+  <si>
+    <t>統計検定公式問題集</t>
+    <rPh sb="0" eb="2">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入門Verilog HDL記述</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小林　優</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンジェルハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北条司</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>達人に学ぶDB設計</t>
+    <rPh sb="0" eb="2">
+      <t>タツジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天才！成功する人々の法則</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> マルコム・グラッドウェル </t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1491,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,6 +1715,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1959,12 +2042,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,7 +2096,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="51">
+      <c r="B4" s="53">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2034,7 +2117,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="52"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2136,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="52"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -2066,7 +2149,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2087,7 +2170,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="52"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2189,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="51">
+      <c r="B9" s="53">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2127,7 +2210,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="52"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2229,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="51">
+      <c r="B11" s="53">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2167,7 +2250,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="53"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2959,11 +3042,11 @@
       <c r="H47" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>160</v>
+      <c r="I47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
@@ -2986,11 +3069,11 @@
       <c r="H48" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I48" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>161</v>
+      <c r="I48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
@@ -3105,6 +3188,62 @@
         <v>180</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B53" s="51">
+        <v>42403</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B54" s="52"/>
+      <c r="C54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3195,16 +3334,20 @@
     <hyperlink ref="I31" r:id="rId76"/>
     <hyperlink ref="I43" r:id="rId77"/>
     <hyperlink ref="I45" r:id="rId78" display="人間失格"/>
-    <hyperlink ref="I47" r:id="rId79"/>
-    <hyperlink ref="J31" r:id="rId80"/>
-    <hyperlink ref="J43" r:id="rId81"/>
-    <hyperlink ref="J45" r:id="rId82" display="人間失格"/>
-    <hyperlink ref="J47" r:id="rId83"/>
-    <hyperlink ref="H51" r:id="rId84"/>
-    <hyperlink ref="I51" r:id="rId85"/>
+    <hyperlink ref="J31" r:id="rId79"/>
+    <hyperlink ref="J43" r:id="rId80"/>
+    <hyperlink ref="J45" r:id="rId81" display="人間失格"/>
+    <hyperlink ref="H51" r:id="rId82"/>
+    <hyperlink ref="I51" r:id="rId83"/>
+    <hyperlink ref="E53" r:id="rId84" display="海賊とよばれた男"/>
+    <hyperlink ref="G53" r:id="rId85" display="ラジコンを始める時に読む本"/>
+    <hyperlink ref="F53" r:id="rId86"/>
+    <hyperlink ref="D53" r:id="rId87"/>
+    <hyperlink ref="H53" r:id="rId88"/>
+    <hyperlink ref="I53" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="201">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1375,6 +1375,56 @@
   </si>
   <si>
     <t xml:space="preserve"> マルコム・グラッドウェル </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鴻池剛と猫のぽんた ニャアアアン!</t>
+  </si>
+  <si>
+    <t>鴻池剛</t>
+    <rPh sb="0" eb="2">
+      <t>コウノイケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンジェル伝説</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八木 教広 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FinTech革命(日経BPムック) </t>
+  </si>
+  <si>
+    <t>日経コンピュータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孤独のグルメ2</t>
+  </si>
+  <si>
+    <t>久住 昌之</t>
+    <rPh sb="0" eb="1">
+      <t>ヒサ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサユキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嘘喰い</t>
+  </si>
+  <si>
+    <t>迫稔雄</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1568,7 +1618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1731,11 +1781,20 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2042,12 +2101,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2096,7 +2155,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="53">
+      <c r="B4" s="55">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2117,7 +2176,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="54"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2136,7 +2195,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -2149,7 +2208,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="53">
+      <c r="B7" s="55">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2170,7 +2229,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2248,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="53">
+      <c r="B9" s="55">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2210,7 +2269,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2229,7 +2288,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="53">
+      <c r="B11" s="55">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2250,7 +2309,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="55"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -3244,6 +3303,62 @@
         <v>190</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B55" s="53">
+        <v>42438</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B56" s="54"/>
+      <c r="C56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3345,9 +3460,15 @@
     <hyperlink ref="D53" r:id="rId87"/>
     <hyperlink ref="H53" r:id="rId88"/>
     <hyperlink ref="I53" r:id="rId89"/>
+    <hyperlink ref="E55" r:id="rId90" display="海賊とよばれた男"/>
+    <hyperlink ref="G55" r:id="rId91"/>
+    <hyperlink ref="F55" r:id="rId92"/>
+    <hyperlink ref="D55" r:id="rId93"/>
+    <hyperlink ref="H55" r:id="rId94"/>
+    <hyperlink ref="I55" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
 

--- a/ビブリオバトル出典一覧.xlsx
+++ b/ビブリオバトル出典一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C22168\Documents\GitHub\GDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="201">
   <si>
     <t>上島</t>
     <rPh sb="0" eb="2">
@@ -1784,17 +1784,17 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2103,10 +2103,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="55">
+      <c r="B4" s="56">
         <v>41541</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2176,7 +2176,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -2208,7 +2208,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="55">
+      <c r="B7" s="56">
         <v>41554</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2229,7 +2229,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="55">
+      <c r="B9" s="56">
         <v>41568</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2269,7 +2269,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="55">
+      <c r="B11" s="56">
         <v>41583</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2309,7 +2309,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2725,12 +2725,8 @@
       <c r="H31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="28"/>
@@ -2752,12 +2748,8 @@
       <c r="H32" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>118</v>
-      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="29">
@@ -2781,12 +2773,8 @@
       <c r="H33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="L33" t="s">
         <v>126</v>
       </c>
@@ -2811,12 +2799,8 @@
       <c r="H34" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>125</v>
-      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="32">
@@ -2989,12 +2973,8 @@
       <c r="H43" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="41"/>
@@ -3016,12 +2996,8 @@
       <c r="H44" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I44" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>150</v>
-      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="42">
@@ -3042,13 +3018,13 @@
       <c r="G45" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="H45" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3319,7 +3295,7 @@
       <c r="E55" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="55" t="s">
         <v>197</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -3429,46 +3405,39 @@
     <hyperlink ref="H43" r:id="rId56"/>
     <hyperlink ref="F43" r:id="rId57"/>
     <hyperlink ref="G43" r:id="rId58"/>
-    <hyperlink ref="H45" r:id="rId59" display="人間失格"/>
-    <hyperlink ref="D45" r:id="rId60"/>
-    <hyperlink ref="E45" r:id="rId61"/>
-    <hyperlink ref="G45" r:id="rId62"/>
-    <hyperlink ref="H47" r:id="rId63"/>
-    <hyperlink ref="D47" r:id="rId64" display="サウンドレコーディング技術概論"/>
-    <hyperlink ref="E47" r:id="rId65" display="海賊とよばれた男"/>
-    <hyperlink ref="G47" r:id="rId66"/>
-    <hyperlink ref="F47" r:id="rId67"/>
-    <hyperlink ref="E49" r:id="rId68" display="海賊とよばれた男"/>
-    <hyperlink ref="G49" r:id="rId69"/>
-    <hyperlink ref="F49" r:id="rId70"/>
-    <hyperlink ref="D49" r:id="rId71"/>
-    <hyperlink ref="E51" r:id="rId72" display="海賊とよばれた男"/>
-    <hyperlink ref="G51" r:id="rId73"/>
-    <hyperlink ref="F51" r:id="rId74"/>
-    <hyperlink ref="D51" r:id="rId75"/>
-    <hyperlink ref="I31" r:id="rId76"/>
-    <hyperlink ref="I43" r:id="rId77"/>
-    <hyperlink ref="I45" r:id="rId78" display="人間失格"/>
-    <hyperlink ref="J31" r:id="rId79"/>
-    <hyperlink ref="J43" r:id="rId80"/>
-    <hyperlink ref="J45" r:id="rId81" display="人間失格"/>
-    <hyperlink ref="H51" r:id="rId82"/>
-    <hyperlink ref="I51" r:id="rId83"/>
-    <hyperlink ref="E53" r:id="rId84" display="海賊とよばれた男"/>
-    <hyperlink ref="G53" r:id="rId85" display="ラジコンを始める時に読む本"/>
-    <hyperlink ref="F53" r:id="rId86"/>
-    <hyperlink ref="D53" r:id="rId87"/>
-    <hyperlink ref="H53" r:id="rId88"/>
-    <hyperlink ref="I53" r:id="rId89"/>
-    <hyperlink ref="E55" r:id="rId90" display="海賊とよばれた男"/>
-    <hyperlink ref="G55" r:id="rId91"/>
-    <hyperlink ref="F55" r:id="rId92"/>
-    <hyperlink ref="D55" r:id="rId93"/>
-    <hyperlink ref="H55" r:id="rId94"/>
-    <hyperlink ref="I55" r:id="rId95"/>
+    <hyperlink ref="D45" r:id="rId59"/>
+    <hyperlink ref="E45" r:id="rId60"/>
+    <hyperlink ref="G45" r:id="rId61"/>
+    <hyperlink ref="H47" r:id="rId62"/>
+    <hyperlink ref="D47" r:id="rId63" display="サウンドレコーディング技術概論"/>
+    <hyperlink ref="E47" r:id="rId64" display="海賊とよばれた男"/>
+    <hyperlink ref="G47" r:id="rId65"/>
+    <hyperlink ref="F47" r:id="rId66"/>
+    <hyperlink ref="E49" r:id="rId67" display="海賊とよばれた男"/>
+    <hyperlink ref="G49" r:id="rId68"/>
+    <hyperlink ref="F49" r:id="rId69"/>
+    <hyperlink ref="D49" r:id="rId70"/>
+    <hyperlink ref="E51" r:id="rId71" display="海賊とよばれた男"/>
+    <hyperlink ref="G51" r:id="rId72"/>
+    <hyperlink ref="F51" r:id="rId73"/>
+    <hyperlink ref="D51" r:id="rId74"/>
+    <hyperlink ref="H51" r:id="rId75"/>
+    <hyperlink ref="I51" r:id="rId76"/>
+    <hyperlink ref="E53" r:id="rId77" display="海賊とよばれた男"/>
+    <hyperlink ref="G53" r:id="rId78" display="ラジコンを始める時に読む本"/>
+    <hyperlink ref="F53" r:id="rId79"/>
+    <hyperlink ref="D53" r:id="rId80"/>
+    <hyperlink ref="H53" r:id="rId81"/>
+    <hyperlink ref="I53" r:id="rId82"/>
+    <hyperlink ref="E55" r:id="rId83" display="海賊とよばれた男"/>
+    <hyperlink ref="G55" r:id="rId84"/>
+    <hyperlink ref="F55" r:id="rId85"/>
+    <hyperlink ref="D55" r:id="rId86"/>
+    <hyperlink ref="H55" r:id="rId87"/>
+    <hyperlink ref="I55" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 
